--- a/docs/odh/shr-core-SituationStatement-model.xlsx
+++ b/docs/odh/shr-core-SituationStatement-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="71">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-SituationStatement-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-SituationStatement-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +189,7 @@
     <t>shr-core-SituationStatement-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +199,7 @@
     <t>shr-core-SituationStatement-model.subjectOfRecord[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchSubject-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Specimen-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ResearchSubject-model]]}
 </t>
   </si>
   <si>
@@ -217,7 +213,7 @@
     <t>shr-core-SituationStatement-model.careContext[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EpisodeOfCare-model]]}
 </t>
   </si>
   <si>
@@ -390,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -802,7 +798,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -834,7 +830,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -857,13 +853,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -914,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -931,7 +927,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -954,13 +950,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1011,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1028,7 +1024,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1054,10 +1050,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1108,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1125,7 +1121,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1148,13 +1144,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1205,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1222,7 +1218,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1245,13 +1241,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1302,7 +1298,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1319,7 +1315,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1342,13 +1338,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1399,7 +1395,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1416,7 +1412,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1439,13 +1435,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1481,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1496,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1513,7 +1509,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1539,10 +1535,10 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1593,7 +1589,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
